--- a/Code/Results/Cases/Case_11_3/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_11_3/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.46677384630982</v>
+        <v>1.011405450699755</v>
       </c>
       <c r="C2">
-        <v>1.019169272890139</v>
+        <v>0.1055539905874099</v>
       </c>
       <c r="D2">
-        <v>0.04824190763466873</v>
+        <v>0.04017500651253414</v>
       </c>
       <c r="E2">
-        <v>1.35169962688731</v>
+        <v>0.03305443693425936</v>
       </c>
       <c r="F2">
-        <v>0.5084535737087279</v>
+        <v>1.14023455575223</v>
       </c>
       <c r="G2">
-        <v>0.0007896385517037115</v>
+        <v>0.8957963827636775</v>
       </c>
       <c r="H2">
-        <v>0.01092094002687105</v>
+        <v>0.02066892405721621</v>
       </c>
       <c r="I2">
-        <v>0.003536527785124033</v>
+        <v>0.02144469048079323</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.6563799592276354</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.6909250848209822</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.04503296155213121</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.05266323841298259</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.9510331260703992</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.1529842465261808</v>
       </c>
       <c r="Q2">
-        <v>1.435151477765999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.2174875165551704</v>
+      </c>
+      <c r="R2">
+        <v>1.339826431413567</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.02011174815118</v>
+        <v>0.8853942974577365</v>
       </c>
       <c r="C3">
-        <v>0.8990605546520669</v>
+        <v>0.09255789773214929</v>
       </c>
       <c r="D3">
-        <v>0.0433835340809452</v>
+        <v>0.03580925924805456</v>
       </c>
       <c r="E3">
-        <v>1.176740016824183</v>
+        <v>0.03114403825682288</v>
       </c>
       <c r="F3">
-        <v>0.468187038062311</v>
+        <v>1.10281983581126</v>
       </c>
       <c r="G3">
-        <v>0.000793366441376707</v>
+        <v>0.869509828671184</v>
       </c>
       <c r="H3">
-        <v>0.00766975902495437</v>
+        <v>0.02456734204623601</v>
       </c>
       <c r="I3">
-        <v>0.001965288275290966</v>
+        <v>0.0253546217154339</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.6412178385658081</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.6798187527591466</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.05004583722241929</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.05041126384508221</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.8287913060216283</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.138274420138977</v>
       </c>
       <c r="Q3">
-        <v>1.348594257482659</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.1918889694086516</v>
+      </c>
+      <c r="R3">
+        <v>1.372381393138667</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.745669458445775</v>
+        <v>0.8077636111704294</v>
       </c>
       <c r="C4">
-        <v>0.8258832939075091</v>
+        <v>0.08469598246473709</v>
       </c>
       <c r="D4">
-        <v>0.04041041276209967</v>
+        <v>0.0331494776461696</v>
       </c>
       <c r="E4">
-        <v>1.069666178277558</v>
+        <v>0.02996059327972933</v>
       </c>
       <c r="F4">
-        <v>0.4441198563540496</v>
+        <v>1.080308300778782</v>
       </c>
       <c r="G4">
-        <v>0.0007957272508090085</v>
+        <v>0.8539462455355959</v>
       </c>
       <c r="H4">
-        <v>0.005904022270549425</v>
+        <v>0.02722609933857267</v>
       </c>
       <c r="I4">
-        <v>0.001270814676121557</v>
+        <v>0.02805892553403266</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.631963707003834</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.6731651655747299</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.05415014422699826</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.04899472884799394</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.7537655796917022</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.1293006596744988</v>
       </c>
       <c r="Q4">
-        <v>1.297464469391542</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.1761661583366774</v>
+      </c>
+      <c r="R4">
+        <v>1.392840277431464</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.633730900298815</v>
+        <v>0.7752671702089344</v>
       </c>
       <c r="C5">
-        <v>0.7977722387358028</v>
+        <v>0.08172987706650758</v>
       </c>
       <c r="D5">
-        <v>0.03928077046956702</v>
+        <v>0.03210977678922688</v>
       </c>
       <c r="E5">
-        <v>1.02608314129057</v>
+        <v>0.02946572293358152</v>
       </c>
       <c r="F5">
-        <v>0.4336700664951891</v>
+        <v>1.070447223569779</v>
       </c>
       <c r="G5">
-        <v>0.0007967124296093884</v>
+        <v>0.8469651224041144</v>
       </c>
       <c r="H5">
-        <v>0.00523637476029204</v>
+        <v>0.02838278251610626</v>
       </c>
       <c r="I5">
-        <v>0.001110499418202515</v>
+        <v>0.02935047828678972</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.6277876909143885</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.6698937851170541</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.05608233423681774</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.04838624323578777</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.7230062762742762</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.1257741236408307</v>
       </c>
       <c r="Q5">
-        <v>1.274436995028537</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.1696990274433645</v>
+      </c>
+      <c r="R5">
+        <v>1.400831501894611</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.615103766652396</v>
+        <v>0.7688962774731181</v>
       </c>
       <c r="C6">
-        <v>0.7950489896263662</v>
+        <v>0.08149801886268904</v>
       </c>
       <c r="D6">
-        <v>0.03919122151063448</v>
+        <v>0.03198556483673798</v>
       </c>
       <c r="E6">
-        <v>1.018830727099584</v>
+        <v>0.02937146391776135</v>
       </c>
       <c r="F6">
-        <v>0.4309748955527013</v>
+        <v>1.067839920707485</v>
       </c>
       <c r="G6">
-        <v>0.0007968828780179578</v>
+        <v>0.8448637381530517</v>
       </c>
       <c r="H6">
-        <v>0.005126972417599962</v>
+        <v>0.02858910119835822</v>
       </c>
       <c r="I6">
-        <v>0.001168165231651308</v>
+        <v>0.02971899485010621</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.6265838716483785</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.6686196468120755</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.05641890121778736</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.04825743799866444</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.7176693857423118</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.1253327192213405</v>
       </c>
       <c r="Q6">
-        <v>1.267397047251904</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.1685544382681528</v>
+      </c>
+      <c r="R6">
+        <v>1.401603016514713</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.74406360535454</v>
+        <v>0.8039550676757301</v>
       </c>
       <c r="C7">
-        <v>0.8308092758339853</v>
+        <v>0.08510157395211593</v>
       </c>
       <c r="D7">
-        <v>0.04066341026042863</v>
+        <v>0.03341142029290722</v>
       </c>
       <c r="E7">
-        <v>1.069026406947373</v>
+        <v>0.02994509234092213</v>
       </c>
       <c r="F7">
-        <v>0.4413300423773592</v>
+        <v>1.075941699410144</v>
       </c>
       <c r="G7">
-        <v>0.0007957557770997617</v>
+        <v>0.8543213571946495</v>
       </c>
       <c r="H7">
-        <v>0.005890106154369357</v>
+        <v>0.02728361681368141</v>
       </c>
       <c r="I7">
-        <v>0.001472853056091239</v>
+        <v>0.02848175964997512</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.6247206330497903</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.6702225074938397</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.05417514901378517</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.04889688526160807</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.7516321575436393</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.1296245770928266</v>
       </c>
       <c r="Q7">
-        <v>1.28828808501018</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.1757724269464482</v>
+      </c>
+      <c r="R7">
+        <v>1.390662749182532</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.312653545137607</v>
+        <v>0.9620649252298961</v>
       </c>
       <c r="C8">
-        <v>0.9847298999007421</v>
+        <v>0.1011124224348237</v>
       </c>
       <c r="D8">
-        <v>0.04692401796475565</v>
+        <v>0.03932464696895011</v>
       </c>
       <c r="E8">
-        <v>1.291216389130142</v>
+        <v>0.03243531013127843</v>
       </c>
       <c r="F8">
-        <v>0.4909136236972671</v>
+        <v>1.118519237907016</v>
       </c>
       <c r="G8">
-        <v>0.0007909279253908628</v>
+        <v>0.89351020662194</v>
       </c>
       <c r="H8">
-        <v>0.009741767389663553</v>
+        <v>0.02202916513431785</v>
       </c>
       <c r="I8">
-        <v>0.003174773938467546</v>
+        <v>0.0232449517909572</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.6302324304164557</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.6814599959784005</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.04654930388579004</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.05174722785105068</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.9043697853338699</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.1483536355858917</v>
       </c>
       <c r="Q8">
-        <v>1.393125671300481</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.2080229267675833</v>
+      </c>
+      <c r="R8">
+        <v>1.346585447310183</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.427610317638539</v>
+        <v>1.277610922160164</v>
       </c>
       <c r="C9">
-        <v>1.282110248089054</v>
+        <v>0.1332607081917132</v>
       </c>
       <c r="D9">
-        <v>0.0588090931990024</v>
+        <v>0.05033751278347154</v>
       </c>
       <c r="E9">
-        <v>1.730915313986756</v>
+        <v>0.03721860585277348</v>
       </c>
       <c r="F9">
-        <v>0.5988199823157387</v>
+        <v>1.216344810496835</v>
       </c>
       <c r="G9">
-        <v>0.0007819898167375172</v>
+        <v>0.9686718606434681</v>
       </c>
       <c r="H9">
-        <v>0.01935802986678037</v>
+        <v>0.01382631524873751</v>
       </c>
       <c r="I9">
-        <v>0.008607690668569923</v>
+        <v>0.01482334029862731</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.664597852441986</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.7116965902287546</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.03967238090657915</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.05727464530190929</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.209549703111122</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.1849702971282667</v>
       </c>
       <c r="Q9">
-        <v>1.632718893241275</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.2720372104521331</v>
+      </c>
+      <c r="R9">
+        <v>1.269332416702067</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.24749449069725</v>
+        <v>1.495388407392312</v>
       </c>
       <c r="C10">
-        <v>1.50644471872306</v>
+        <v>0.1571756797179091</v>
       </c>
       <c r="D10">
-        <v>0.06925275944912102</v>
+        <v>0.05858623134492547</v>
       </c>
       <c r="E10">
-        <v>1.955498156088424</v>
+        <v>0.03966850878940242</v>
       </c>
       <c r="F10">
-        <v>0.6683724546327312</v>
+        <v>1.266886988719293</v>
       </c>
       <c r="G10">
-        <v>0.0007759177289413412</v>
+        <v>1.033426966847998</v>
       </c>
       <c r="H10">
-        <v>0.02725836382229918</v>
+        <v>0.009718289389283541</v>
       </c>
       <c r="I10">
-        <v>0.0143664161419883</v>
+        <v>0.01062514463773123</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.6514828775545141</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.7214572893853628</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.03945751483081583</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.06019228909361551</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.423166969667534</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.2054508721577548</v>
       </c>
       <c r="Q10">
-        <v>1.775547518866148</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.3138161789957152</v>
+      </c>
+      <c r="R10">
+        <v>1.205578303567197</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.612142301903873</v>
+        <v>1.517091048146028</v>
       </c>
       <c r="C11">
-        <v>1.610434802784823</v>
+        <v>0.1724994570989367</v>
       </c>
       <c r="D11">
-        <v>0.08861588644301577</v>
+        <v>0.05612179587301114</v>
       </c>
       <c r="E11">
-        <v>1.267337406619561</v>
+        <v>0.03238897689257492</v>
       </c>
       <c r="F11">
-        <v>0.5871507068896307</v>
+        <v>1.156099266806223</v>
       </c>
       <c r="G11">
-        <v>0.0007746196692268896</v>
+        <v>0.9925845196427616</v>
       </c>
       <c r="H11">
-        <v>0.04270868006982909</v>
+        <v>0.02820369426996194</v>
       </c>
       <c r="I11">
-        <v>0.01643561128637661</v>
+        <v>0.01039456755272816</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.550874359658394</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.6538210211976292</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.0403922029264443</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.05770708067364527</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.468636943420307</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.1595055832085066</v>
       </c>
       <c r="Q11">
-        <v>1.474547141099578</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.2924304333492174</v>
+      </c>
+      <c r="R11">
+        <v>1.134275700480094</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.74725555498668</v>
+        <v>1.49550594504143</v>
       </c>
       <c r="C12">
-        <v>1.642389293035194</v>
+        <v>0.1803376839901745</v>
       </c>
       <c r="D12">
-        <v>0.1037805964393641</v>
+        <v>0.05160613638560818</v>
       </c>
       <c r="E12">
-        <v>0.7713189373199754</v>
+        <v>0.02785048673129564</v>
       </c>
       <c r="F12">
-        <v>0.5121260620343264</v>
+        <v>1.064702738703375</v>
       </c>
       <c r="G12">
-        <v>0.0007745905169331831</v>
+        <v>0.9366740237419293</v>
       </c>
       <c r="H12">
-        <v>0.07854308646568597</v>
+        <v>0.06718436232787184</v>
       </c>
       <c r="I12">
-        <v>0.01664005842228544</v>
+        <v>0.01030642760649769</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.4958895647696124</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.6034025495512196</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.04089309283869458</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.06083480770328897</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.466116564896964</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.1215871580064842</v>
       </c>
       <c r="Q12">
-        <v>1.224683832186997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.2669652237325337</v>
+      </c>
+      <c r="R12">
+        <v>1.100514713744372</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.71206086016997</v>
+        <v>1.437073588477631</v>
       </c>
       <c r="C13">
-        <v>1.628934670659646</v>
+        <v>0.1847413544192875</v>
       </c>
       <c r="D13">
-        <v>0.1168170525753141</v>
+        <v>0.04523251371362846</v>
       </c>
       <c r="E13">
-        <v>0.3948377359290731</v>
+        <v>0.02517952889563846</v>
       </c>
       <c r="F13">
-        <v>0.4334589186537912</v>
+        <v>0.9811265301465752</v>
       </c>
       <c r="G13">
-        <v>0.0007755528712741501</v>
+        <v>0.8553447563243992</v>
       </c>
       <c r="H13">
-        <v>0.1314041879758321</v>
+        <v>0.1236212179695286</v>
       </c>
       <c r="I13">
-        <v>0.01567717074598907</v>
+        <v>0.01082580494555696</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.4730893688825901</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.5612382675447556</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.04077870592103938</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.06818226912223935</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.428358946937891</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.08843143659543529</v>
       </c>
       <c r="Q13">
-        <v>0.9858811040282944</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.2369558069895774</v>
+      </c>
+      <c r="R13">
+        <v>1.089213387471132</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.610402796626545</v>
+        <v>1.378785678806025</v>
       </c>
       <c r="C14">
-        <v>1.600782500645209</v>
+        <v>0.1865396416608434</v>
       </c>
       <c r="D14">
-        <v>0.1251548963565625</v>
+        <v>0.04012374721052225</v>
       </c>
       <c r="E14">
-        <v>0.2040035724406977</v>
+        <v>0.0245214938762579</v>
       </c>
       <c r="F14">
-        <v>0.3772055239524477</v>
+        <v>0.9253977530823647</v>
       </c>
       <c r="G14">
-        <v>0.0007766576504858142</v>
+        <v>0.7888597471428085</v>
       </c>
       <c r="H14">
-        <v>0.1788295655706946</v>
+        <v>0.1736121381057103</v>
       </c>
       <c r="I14">
-        <v>0.01459786682350295</v>
+        <v>0.01159874309276177</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.4685721367878699</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.5348761594761768</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.04043047512220799</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.07589116070030855</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.385707252677634</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.06838485317755527</v>
       </c>
       <c r="Q14">
-        <v>0.8260307867355579</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.2140794533229951</v>
+      </c>
+      <c r="R14">
+        <v>1.090865285148253</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.549222564864976</v>
+        <v>1.355727557532475</v>
       </c>
       <c r="C15">
-        <v>1.586479300100507</v>
+        <v>0.1864984305004924</v>
       </c>
       <c r="D15">
-        <v>0.1266680095887693</v>
+        <v>0.03858522044322399</v>
       </c>
       <c r="E15">
-        <v>0.1664673984577796</v>
+        <v>0.02449768661091145</v>
       </c>
       <c r="F15">
-        <v>0.361549071281118</v>
+        <v>0.9118687513637127</v>
       </c>
       <c r="G15">
-        <v>0.0007771664842525621</v>
+        <v>0.7677766834951001</v>
       </c>
       <c r="H15">
-        <v>0.1906857109769646</v>
+        <v>0.1864301418763006</v>
       </c>
       <c r="I15">
-        <v>0.01418120435697556</v>
+        <v>0.01209981269534754</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.4719588147305558</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.5290610336494836</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.04023626526702095</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.07792791056001391</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.367449846399666</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.06387663744860106</v>
       </c>
       <c r="Q15">
-        <v>0.7848470606577962</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.2074061528659463</v>
+      </c>
+      <c r="R15">
+        <v>1.094369495447674</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.202401853822494</v>
+        <v>1.28009156967218</v>
       </c>
       <c r="C16">
-        <v>1.495615476278033</v>
+        <v>0.1782918093418715</v>
       </c>
       <c r="D16">
-        <v>0.1191748546277722</v>
+        <v>0.03551361303285461</v>
       </c>
       <c r="E16">
-        <v>0.1619581450697751</v>
+        <v>0.02411821335228481</v>
       </c>
       <c r="F16">
-        <v>0.3473887037929586</v>
+        <v>0.9170543844865904</v>
       </c>
       <c r="G16">
-        <v>0.0007795445118418047</v>
+        <v>0.7323005758878907</v>
       </c>
       <c r="H16">
-        <v>0.175491235802042</v>
+        <v>0.1753589248234846</v>
       </c>
       <c r="I16">
-        <v>0.01192358401845794</v>
+        <v>0.01386947053012744</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.5148420199071353</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.5381184888990056</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.03941707583436216</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.07494228103684719</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.293535257427237</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.06294809772343513</v>
       </c>
       <c r="Q16">
-        <v>0.7706965671103063</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.197103315502833</v>
+      </c>
+      <c r="R16">
+        <v>1.121095268679445</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.991035451832488</v>
+        <v>1.251773026125534</v>
       </c>
       <c r="C17">
-        <v>1.441267988981963</v>
+        <v>0.1705471968904249</v>
       </c>
       <c r="D17">
-        <v>0.1089952125854552</v>
+        <v>0.03595568728279375</v>
       </c>
       <c r="E17">
-        <v>0.2459753982704243</v>
+        <v>0.02388379186525658</v>
       </c>
       <c r="F17">
-        <v>0.365796307107324</v>
+        <v>0.9490566920713803</v>
       </c>
       <c r="G17">
-        <v>0.000780802229109395</v>
+        <v>0.7429427278903233</v>
       </c>
       <c r="H17">
-        <v>0.1367689001963726</v>
+        <v>0.1385495695847538</v>
       </c>
       <c r="I17">
-        <v>0.01081278822335374</v>
+        <v>0.01487755519604761</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.5472856239253474</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.5583010411208171</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.03917787572528741</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.068107554418809</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.257782819869931</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.07225666022399935</v>
       </c>
       <c r="Q17">
-        <v>0.8422055574621652</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.201037724614288</v>
+      </c>
+      <c r="R17">
+        <v>1.141704818876137</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.871728470037112</v>
+        <v>1.264535269318031</v>
       </c>
       <c r="C18">
-        <v>1.407347280808153</v>
+        <v>0.1623706321135785</v>
       </c>
       <c r="D18">
-        <v>0.09563455489917061</v>
+        <v>0.03917450400949463</v>
       </c>
       <c r="E18">
-        <v>0.4790218023010837</v>
+        <v>0.0248597199626206</v>
       </c>
       <c r="F18">
-        <v>0.4181691898324047</v>
+        <v>1.013998157229977</v>
       </c>
       <c r="G18">
-        <v>0.0007811315644281613</v>
+        <v>0.7902981983597073</v>
       </c>
       <c r="H18">
-        <v>0.08461431799794639</v>
+        <v>0.08592541685268884</v>
       </c>
       <c r="I18">
-        <v>0.01026415122278657</v>
+        <v>0.01482465489954432</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.5837240491865714</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.5943582418077362</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.03913756153441361</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.0598540152970255</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.253543911490397</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.09421649229174278</v>
       </c>
       <c r="Q18">
-        <v>1.011170216096644</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.218493423548523</v>
+      </c>
+      <c r="R18">
+        <v>1.163587919977938</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.83500880465499</v>
+        <v>1.305069890120308</v>
       </c>
       <c r="C19">
-        <v>1.40339474351282</v>
+        <v>0.1563752453498353</v>
       </c>
       <c r="D19">
-        <v>0.08223365033970964</v>
+        <v>0.0447035790657182</v>
       </c>
       <c r="E19">
-        <v>0.9131096264680565</v>
+        <v>0.02838680206248334</v>
       </c>
       <c r="F19">
-        <v>0.4940337535870114</v>
+        <v>1.100263997934057</v>
       </c>
       <c r="G19">
-        <v>0.0007805737522911431</v>
+        <v>0.8594538171015671</v>
       </c>
       <c r="H19">
-        <v>0.0420758044946794</v>
+        <v>0.03996010871130551</v>
       </c>
       <c r="I19">
-        <v>0.01072812603060136</v>
+        <v>0.01461844062507112</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.6230944902038971</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.640010528205103</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.03914066407849726</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.05510859469857365</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.274561172103148</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.1297934090749493</v>
       </c>
       <c r="Q19">
-        <v>1.251779364725252</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.2461826895360559</v>
+      </c>
+      <c r="R19">
+        <v>1.188836752200137</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.031627643970751</v>
+        <v>1.432103311001697</v>
       </c>
       <c r="C20">
-        <v>1.464437765624723</v>
+        <v>0.1541056153987768</v>
       </c>
       <c r="D20">
-        <v>0.06744620694644254</v>
+        <v>0.05625529217671499</v>
       </c>
       <c r="E20">
-        <v>1.891890550245648</v>
+        <v>0.0387897530084107</v>
       </c>
       <c r="F20">
-        <v>0.6409981226065185</v>
+        <v>1.250307317255832</v>
       </c>
       <c r="G20">
-        <v>0.0007775358304290444</v>
+        <v>0.9960208902470669</v>
       </c>
       <c r="H20">
-        <v>0.02500230937025849</v>
+        <v>0.01071216158728916</v>
       </c>
       <c r="I20">
-        <v>0.01333659226125761</v>
+        <v>0.01270840250977656</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.6704737911090461</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.7156162725572202</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.03919328322222526</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.05922764456389906</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.368852702913841</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.201069899368683</v>
       </c>
       <c r="Q20">
-        <v>1.707873429777266</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.3024571530780307</v>
+      </c>
+      <c r="R20">
+        <v>1.220242638023414</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.663603663768583</v>
+        <v>1.598065978145485</v>
       </c>
       <c r="C21">
-        <v>1.636139845533137</v>
+        <v>0.1661577427650087</v>
       </c>
       <c r="D21">
-        <v>0.07300782904698622</v>
+        <v>0.0669172908380844</v>
       </c>
       <c r="E21">
-        <v>2.224275313971731</v>
+        <v>0.04300261135961847</v>
       </c>
       <c r="F21">
-        <v>0.7181090159483858</v>
+        <v>1.28327052853902</v>
       </c>
       <c r="G21">
-        <v>0.0007726865873697398</v>
+        <v>1.130203132879473</v>
       </c>
       <c r="H21">
-        <v>0.03281830044685519</v>
+        <v>0.007546332910115472</v>
       </c>
       <c r="I21">
-        <v>0.01854060229383236</v>
+        <v>0.009784002922754276</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.5730318922214082</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.719420834633496</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.04052878297815088</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.06263938918970613</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.51878730168815</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.22697880224122</v>
       </c>
       <c r="Q21">
-        <v>1.895197017569245</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.3394549061349394</v>
+      </c>
+      <c r="R21">
+        <v>1.169120696611746</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.077296100170315</v>
+        <v>1.704739337994994</v>
       </c>
       <c r="C22">
-        <v>1.741715857843474</v>
+        <v>0.1732788865538595</v>
       </c>
       <c r="D22">
-        <v>0.07705961331203781</v>
+        <v>0.0736391108067167</v>
       </c>
       <c r="E22">
-        <v>2.390794747381719</v>
+        <v>0.0452817105929828</v>
       </c>
       <c r="F22">
-        <v>0.7665380570823004</v>
+        <v>1.299102083652855</v>
       </c>
       <c r="G22">
-        <v>0.000769642109448282</v>
+        <v>1.22578938849054</v>
       </c>
       <c r="H22">
-        <v>0.03795447932891705</v>
+        <v>0.005940686314222843</v>
       </c>
       <c r="I22">
-        <v>0.02207615676014552</v>
+        <v>0.007796914787812526</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.510371513836219</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.7194115143775974</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.04225741429945806</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.06448465818629234</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.613505511919726</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.2399315740055101</v>
       </c>
       <c r="Q22">
-        <v>2.010982655735347</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.3613883350880656</v>
+      </c>
+      <c r="R22">
+        <v>1.134687954669026</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.856533976777541</v>
+        <v>1.653068281564003</v>
       </c>
       <c r="C23">
-        <v>1.678693843975964</v>
+        <v>0.1693209183850968</v>
       </c>
       <c r="D23">
-        <v>0.0745603636229859</v>
+        <v>0.06944649976915684</v>
       </c>
       <c r="E23">
-        <v>2.301860511110718</v>
+        <v>0.04402577620812487</v>
       </c>
       <c r="F23">
-        <v>0.7437029678328884</v>
+        <v>1.29778111502516</v>
       </c>
       <c r="G23">
-        <v>0.0007712498272074986</v>
+        <v>1.168153532224949</v>
       </c>
       <c r="H23">
-        <v>0.03518443906473134</v>
+        <v>0.006745137495012654</v>
       </c>
       <c r="I23">
-        <v>0.01990882957891671</v>
+        <v>0.008391793776765688</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.5559766370180768</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.7239566859056623</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.04125700356327755</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.06361376992068202</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.566778298228513</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.2325864087674177</v>
       </c>
       <c r="Q23">
-        <v>1.959238721746175</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.3502376896240591</v>
+      </c>
+      <c r="R23">
+        <v>1.155925862381928</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.022345505370311</v>
+        <v>1.440090356707032</v>
       </c>
       <c r="C24">
-        <v>1.452387582760707</v>
+        <v>0.152013899059142</v>
       </c>
       <c r="D24">
-        <v>0.0656626206233426</v>
+        <v>0.05659323561722118</v>
       </c>
       <c r="E24">
-        <v>1.967538615152051</v>
+        <v>0.03970718667851614</v>
       </c>
       <c r="F24">
-        <v>0.6548386594035378</v>
+        <v>1.265022554503204</v>
       </c>
       <c r="G24">
-        <v>0.0007774558731151467</v>
+        <v>1.00820167068062</v>
       </c>
       <c r="H24">
-        <v>0.02548343545092102</v>
+        <v>0.01044168242535671</v>
       </c>
       <c r="I24">
-        <v>0.01297716825878936</v>
+        <v>0.01199545086819587</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.6780376720422936</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.724697868435058</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.03918601460529203</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.06001047703190743</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.37091687165298</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.2053978960642837</v>
       </c>
       <c r="Q24">
-        <v>1.754635322995938</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.3057876385565237</v>
+      </c>
+      <c r="R24">
+        <v>1.227310179529237</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.125615602166818</v>
+        <v>1.188557102920072</v>
       </c>
       <c r="C25">
-        <v>1.210872665251486</v>
+        <v>0.1261135302843854</v>
       </c>
       <c r="D25">
-        <v>0.05608168448596018</v>
+        <v>0.04736807498591133</v>
       </c>
       <c r="E25">
-        <v>1.611287029704712</v>
+        <v>0.0358370855849639</v>
       </c>
       <c r="F25">
-        <v>0.5640920550256467</v>
+        <v>1.186894982875131</v>
       </c>
       <c r="G25">
-        <v>0.0007843738772956623</v>
+        <v>0.9385658867182229</v>
       </c>
       <c r="H25">
-        <v>0.01649207729639268</v>
+        <v>0.01581595114575873</v>
       </c>
       <c r="I25">
-        <v>0.007186637996994705</v>
+        <v>0.01743940517756304</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.6609677558542444</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.70106399561611</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.04067702969877529</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.05569372730841327</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.127299104171442</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.1757510376745941</v>
       </c>
       <c r="Q25">
-        <v>1.549647283128024</v>
+        <v>0.2545184888580039</v>
+      </c>
+      <c r="R25">
+        <v>1.288338773448984</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
